--- a/medicine/Mort/Cimetière_du_Montparnasse/Cimetière_du_Montparnasse.xlsx
+++ b/medicine/Mort/Cimetière_du_Montparnasse/Cimetière_du_Montparnasse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Montparnasse</t>
+          <t>Cimetière_du_Montparnasse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Montparnasse est situé dans le 14e arrondissement de Paris. À l'origine, il se nommait cimetière du Sud. Il a été créé en 1824 lors de la mise en œuvre des premières politiques d'urbanisme et plus particulièrement à l'occasion de la mise en place d'un réseau de cimetières parisiens en dehors des anciennes limites de la capitale.
 D'une superficie de 19 hectares, il est délimité par la rue Froidevaux au sud, la rue Victor-Schœlcher à l'est, le boulevard Raspail au nord-est, le boulevard Edgar-Quinet au nord, et la rue de la Gaîté à l'ouest. La rue Émile-Richard traverse le cimetière depuis 1890.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Montparnasse</t>
+          <t>Cimetière_du_Montparnasse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière du Montparnasse a été ouvert en 1824 hors la barrière du Montparnasse au sud de l'enceinte des Fermiers généraux qui délimitait alors la ville. Situé au Petit-Montrouge, territoire de la commune de Montrouge, il fait partie des quatre cimetières mis en service dans les deux premières décennies du XIXe siècle en dehors des limites de la ville, les trois autres étant le cimetière du Père Lachaise (1804), à l'est de la ville, ouvert sur le territoire de la commune de Charonne, le cimetière de Passy (1820), à l'ouest et le cimetière de Montmartre (1825) aménagé à l'emplacement d'un petit cimetière préexistant[1].
-L'emplacement était autrefois occupé par trois fermes. Il subsiste encore dans le cimetière une tour de l'un des nombreux moulins à farine des quartiers du Parc de Montsouris et du Montparnasse. Au début du XIXe siècle, les terrains furent achetés à l'initiative de Nicolas Frochot, préfet de la Seine[2].
-La première inhumation a lieu le 25 juillet 1824. À l'ouverture du cimetière, le moulin devient la maison du gardien. Il est classé monument historique par un arrêté du 2 novembre 1931. Ouvrent ensuite autour du nouveau lieu de culte des entreprises de marbriers, travaillant avec des sculpteurs qui étaient installés à proximité, comme François Rude, Jean-Baptiste Carpeaux puis Antoine Bourdelle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Montparnasse a été ouvert en 1824 hors la barrière du Montparnasse au sud de l'enceinte des Fermiers généraux qui délimitait alors la ville. Situé au Petit-Montrouge, territoire de la commune de Montrouge, il fait partie des quatre cimetières mis en service dans les deux premières décennies du XIXe siècle en dehors des limites de la ville, les trois autres étant le cimetière du Père Lachaise (1804), à l'est de la ville, ouvert sur le territoire de la commune de Charonne, le cimetière de Passy (1820), à l'ouest et le cimetière de Montmartre (1825) aménagé à l'emplacement d'un petit cimetière préexistant.
+L'emplacement était autrefois occupé par trois fermes. Il subsiste encore dans le cimetière une tour de l'un des nombreux moulins à farine des quartiers du Parc de Montsouris et du Montparnasse. Au début du XIXe siècle, les terrains furent achetés à l'initiative de Nicolas Frochot, préfet de la Seine.
+La première inhumation a lieu le 25 juillet 1824. À l'ouverture du cimetière, le moulin devient la maison du gardien. Il est classé monument historique par un arrêté du 2 novembre 1931. Ouvrent ensuite autour du nouveau lieu de culte des entreprises de marbriers, travaillant avec des sculpteurs qui étaient installés à proximité, comme François Rude, Jean-Baptiste Carpeaux puis Antoine Bourdelle.
 			Emplacement de la barrière et du cimetière de Montparnasse, extrait de l'Atlas de Jacoubet, 1836.
 			Place centrale ornée du Génie du sommeil éternel, d'Horace Daillion (1889).
 			La tour du Moulin de la Charité.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Montparnasse</t>
+          <t>Cimetière_du_Montparnasse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,16 +570,18 @@
           <t>Époque contemporaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entrée principale du cimetière est située au nord sur le boulevard Edgar Quinet, historien et homme politique républicain qui s'exila sous le Second empire. Il revint pour être élu député en 1870 mais mourut juste avant d'avoir vu l'instauration définitive du Régime républicain en France, qu'il appelait de ses vœux. Il repose  au centre du cimetière (11e division).
 La partie principale du cimetière à l'ouest de la rue Émile-Richard est divisée en 21 divisions. La numérotation suit l'ordre d'une spirale à partir du rond-point central.
 La partie située à l'est de la rue Émile-Richard est divisée en huit divisions, numérotées de 22 à 30 ; il n'y a pas de 23e division.
-Des plans sur papier sont disponibles à l'entrée principale et le service de la conservation répond aux demandes de localisation précise, en précisant la sous-section concernée et une double indication nord/sud et est/ouest[4].
+Des plans sur papier sont disponibles à l'entrée principale et le service de la conservation répond aux demandes de localisation précise, en précisant la sous-section concernée et une double indication nord/sud et est/ouest.
 Quatre sections de la 5e division avaient été un temps réservées aux israélites, à l’instar d’Adolphe Crémieux, qui obtint en 1870 la naturalisation des juifs d'Algérie. D'autres personnalités juives sont enterrées au sud de la partie orientale du cimetière, comme  le capitaine Dreyfus disculpé dans une affaire d'espionnage pour le compte de l'Allemagne (1894-1906), qui divisa les Français et fut la cause d'un profond renouvellement du régime républicain.
 Par ailleurs, le cimetière abrite de nombreuses tombes collectives des congrégations religieuses. La chapelle des douze apôtres au nord du rond-point est le lieu de sépulture des prêtres sans famille. La tombe individuelle de Rosalie Rendu (14e division), Fille de la charité de Saint-Vincent-de-Paul béatifiée en 2003, est toujours soigneusement entretenue et décorée des remerciements des fidèles reconnaissants pour leurs vœux exaucés.
 Un grand nombre de personnages illustres sont enterrés dans le cimetière du Montparnasse y compris des représentants de tous les arts : la poésie, le roman, la peinture, la photographie, la sculpture, la philosophie, le théâtre et le cinéma, la chanson, le dessin satirique…
-Avec ses 19 hectares, la deuxième nécropole intra-muros de Paris en est aussi l'un des plus importants espaces verts. On y dénombre 1 200 arbres, essentiellement des tilleuls, des sophoras, des thuyas, des érables, des frênes et des conifères. Outre les espèces les plus communes d'oiseaux, les lieux sont susceptibles d'accueillir la nidification des espèces familières des cimetières : gobe-mouche gris, grimpereau des jardins, fauvette à tête noire, pic vert ou épeichette, rouge-queue noir, serin cini[5]...
+Avec ses 19 hectares, la deuxième nécropole intra-muros de Paris en est aussi l'un des plus importants espaces verts. On y dénombre 1 200 arbres, essentiellement des tilleuls, des sophoras, des thuyas, des érables, des frênes et des conifères. Outre les espèces les plus communes d'oiseaux, les lieux sont susceptibles d'accueillir la nidification des espèces familières des cimetières : gobe-mouche gris, grimpereau des jardins, fauvette à tête noire, pic vert ou épeichette, rouge-queue noir, serin cini...
 </t>
         </is>
       </c>
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Montparnasse</t>
+          <t>Cimetière_du_Montparnasse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Tombes commémoratives</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Lisfranc (13e division) commença sa carrière de chirurgien lors de la campagne de Napoléon en Saxe (1813) et notamment améliora la connaissance de l'anatomie des articulations du pied : « La chirurgie est brillante quand elle opère, elle l'est bien encore davantage lorsque, sans faire couler le sang et sans mutilation, elle obtient la guérison du malade ».
 Une colonne brisée (8e division) symbolise le destin tragique des Quatre sergents de La Rochelle, guillotinés en place publique le 21 septembre 1822 pour avoir comploté contre la restauration en cours du régime monarchique.
@@ -606,7 +624,7 @@
 Paul-Louis, mort pour la France aux débuts de la Seconde Guerre mondiale.
 Des membres de l'École des Arts et Métiers ont rendu hommage à la création et la construction par Claude Goubet (27e division) des premiers sous-marins dans les années 1880, plus de dix ans après la publication par Jules Verne de son ouvrage Vingt mille lieues sous les mers.
 La France a exprimé en 1937 sa reconnaissance à Louis-Gustave Binger (9e division) pour l'exploration de la boucle du Niger et la fondation de la Côte d'Ivoire, dont il fut le premier administrateur (1893).
-Le cimetière ne possède pas de monument dédié aux morts de la Grande Guerre. Cependant, des familles ont mis en scène le massacre de leur jeune génération. Par exemple, les photographies des fils Danziger (29e division), morts à la bataille de Verdun (1916) et de l'offensive finale d'octobre 1918, font écho aux effigies des frères Royan (25e division) morts lors de l'invasion de 1914 et de la bataille de la Somme (1916)[6].
+Le cimetière ne possède pas de monument dédié aux morts de la Grande Guerre. Cependant, des familles ont mis en scène le massacre de leur jeune génération. Par exemple, les photographies des fils Danziger (29e division), morts à la bataille de Verdun (1916) et de l'offensive finale d'octobre 1918, font écho aux effigies des frères Royan (25e division) morts lors de l'invasion de 1914 et de la bataille de la Somme (1916).
 Plusieurs témoignages d'époque citent les apports d'Adolphe Pégoud (4e division) dans la manœuvre en vol des premiers avions (1913-1915).
 L'aviatrice Maryse Bastié (6e division) a réalisé de nombreux exploits à l'occasion de l'essor de l'aéronautique (1928-1936).
 La décoration cinématographique de la tombe d'Henri Langlois (6e division) illustre la fondation en 1936 de la Cinémathèque française. Par ailleurs Henri de France (15e division) s'est lancé en 1931 dans la conception industrielle de téléviseurs : il est l'inventeur du premier procédé de télévision couleur exploité en France (1967).
